--- a/data/pca/factorExposure/factorExposure_2013-01-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-01-09.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0009220278399540054</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001831179500464268</v>
+      </c>
+      <c r="C2">
+        <v>-0.03152541785875797</v>
+      </c>
+      <c r="D2">
+        <v>0.00614359794530179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0003340494659766723</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006406253737827119</v>
+      </c>
+      <c r="C4">
+        <v>-0.08465340593266391</v>
+      </c>
+      <c r="D4">
+        <v>0.07939399754313266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.000391304932056896</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01429464066365096</v>
+      </c>
+      <c r="C6">
+        <v>-0.113200065720483</v>
+      </c>
+      <c r="D6">
+        <v>0.03262196622116454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001972518280615513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005088752202657893</v>
+      </c>
+      <c r="C7">
+        <v>-0.05777528359929873</v>
+      </c>
+      <c r="D7">
+        <v>0.03155191964473796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.000638388010540877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005891939078796832</v>
+      </c>
+      <c r="C8">
+        <v>-0.03890639246896651</v>
+      </c>
+      <c r="D8">
+        <v>0.04132977856232262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003328793144547885</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004537423442131682</v>
+      </c>
+      <c r="C9">
+        <v>-0.07043134106692775</v>
+      </c>
+      <c r="D9">
+        <v>0.07222446949485721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002313805185419296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005424769303863828</v>
+      </c>
+      <c r="C10">
+        <v>-0.05871809632404121</v>
+      </c>
+      <c r="D10">
+        <v>-0.1970559810625546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002663165446120006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005801199587237036</v>
+      </c>
+      <c r="C11">
+        <v>-0.07967819009379912</v>
+      </c>
+      <c r="D11">
+        <v>0.06063718619375835</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004193496725237937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004155048198662708</v>
+      </c>
+      <c r="C12">
+        <v>-0.06394569957205903</v>
+      </c>
+      <c r="D12">
+        <v>0.04715757231163038</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002046629724409261</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009015853345903879</v>
+      </c>
+      <c r="C13">
+        <v>-0.06848789573830227</v>
+      </c>
+      <c r="D13">
+        <v>0.05695689939772333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0009569897833828015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001627854600607987</v>
+      </c>
+      <c r="C14">
+        <v>-0.04508428430751947</v>
+      </c>
+      <c r="D14">
+        <v>0.009155496259544291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0006012588563205456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006049315410747057</v>
+      </c>
+      <c r="C15">
+        <v>-0.04155412168230493</v>
+      </c>
+      <c r="D15">
+        <v>0.02863299645868634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0008795417638523243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005133237973783498</v>
+      </c>
+      <c r="C16">
+        <v>-0.06508851643378814</v>
+      </c>
+      <c r="D16">
+        <v>0.04835799297894063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001191796775976525</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009042857116785532</v>
+      </c>
+      <c r="C20">
+        <v>-0.0656443735913501</v>
+      </c>
+      <c r="D20">
+        <v>0.04183634808119571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005719956746344229</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01007527547569539</v>
+      </c>
+      <c r="C21">
+        <v>-0.021620474043578</v>
+      </c>
+      <c r="D21">
+        <v>0.03582169733165388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.016607151238403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006570694230470277</v>
+      </c>
+      <c r="C22">
+        <v>-0.09431340489537818</v>
+      </c>
+      <c r="D22">
+        <v>0.1139116439054191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01690827704212912</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006386899859986831</v>
+      </c>
+      <c r="C23">
+        <v>-0.09512777859920539</v>
+      </c>
+      <c r="D23">
+        <v>0.1139419351179111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001296558697201121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.00556711433099511</v>
+      </c>
+      <c r="C24">
+        <v>-0.07639167021689182</v>
+      </c>
+      <c r="D24">
+        <v>0.06182012573388649</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003865907094993564</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003126259385487846</v>
+      </c>
+      <c r="C25">
+        <v>-0.07853231624392509</v>
+      </c>
+      <c r="D25">
+        <v>0.06688929805658894</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004804236366466149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003670980821761296</v>
+      </c>
+      <c r="C26">
+        <v>-0.04085984914940916</v>
+      </c>
+      <c r="D26">
+        <v>0.02154832074309901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.005048119109913559</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0007379256928925395</v>
+      </c>
+      <c r="C28">
+        <v>-0.108335648273191</v>
+      </c>
+      <c r="D28">
+        <v>-0.3174037347397469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001167657187828581</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003325198193795703</v>
+      </c>
+      <c r="C29">
+        <v>-0.05002672074886403</v>
+      </c>
+      <c r="D29">
+        <v>0.006195590519478048</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003321788508975653</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009682529435807951</v>
+      </c>
+      <c r="C30">
+        <v>-0.1430283974394333</v>
+      </c>
+      <c r="D30">
+        <v>0.09622262783523045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001171850265301964</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006321463877075751</v>
+      </c>
+      <c r="C31">
+        <v>-0.04452411656960812</v>
+      </c>
+      <c r="D31">
+        <v>0.03124389860951626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006103699139349353</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.00422332787322432</v>
+      </c>
+      <c r="C32">
+        <v>-0.04091489673381538</v>
+      </c>
+      <c r="D32">
+        <v>0.02136371395319989</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002824144128568323</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.00855570308867214</v>
+      </c>
+      <c r="C33">
+        <v>-0.08613454624717154</v>
+      </c>
+      <c r="D33">
+        <v>0.06602388630850774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004336953342174618</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004025194827898921</v>
+      </c>
+      <c r="C34">
+        <v>-0.05791118972312337</v>
+      </c>
+      <c r="D34">
+        <v>0.05312392959981306</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001401922444128553</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005071497875516458</v>
+      </c>
+      <c r="C35">
+        <v>-0.0405738770566144</v>
+      </c>
+      <c r="D35">
+        <v>0.01592967091731353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.00366252918122325</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001065494692682126</v>
+      </c>
+      <c r="C36">
+        <v>-0.02489528960024766</v>
+      </c>
+      <c r="D36">
+        <v>0.02163709986699958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002367731554604929</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009555886054728673</v>
+      </c>
+      <c r="C38">
+        <v>-0.03534462355814662</v>
+      </c>
+      <c r="D38">
+        <v>0.01524952120138178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01182251958086052</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0004086457719203449</v>
+      </c>
+      <c r="C39">
+        <v>-0.1158193754465694</v>
+      </c>
+      <c r="D39">
+        <v>0.07329313066428837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.01000931847458672</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002819693193805904</v>
+      </c>
+      <c r="C40">
+        <v>-0.09108939751856476</v>
+      </c>
+      <c r="D40">
+        <v>0.009059872919860832</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001273814274183665</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007292790324225741</v>
+      </c>
+      <c r="C41">
+        <v>-0.03792272356863875</v>
+      </c>
+      <c r="D41">
+        <v>0.03608686164832756</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.002916688075560196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.00412826322623337</v>
+      </c>
+      <c r="C43">
+        <v>-0.05367551698287118</v>
+      </c>
+      <c r="D43">
+        <v>0.02439982972258174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.004171364635290969</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003521289890871605</v>
+      </c>
+      <c r="C44">
+        <v>-0.1093216798418091</v>
+      </c>
+      <c r="D44">
+        <v>0.06761163388488804</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001120193612827601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002246239637126387</v>
+      </c>
+      <c r="C46">
+        <v>-0.0330121872701724</v>
+      </c>
+      <c r="D46">
+        <v>0.03244510842804463</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0001331492311369568</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002791769272544882</v>
+      </c>
+      <c r="C47">
+        <v>-0.03754256699645564</v>
+      </c>
+      <c r="D47">
+        <v>0.02165849675291725</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003633004481473552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006711671725745445</v>
+      </c>
+      <c r="C48">
+        <v>-0.0308938169931096</v>
+      </c>
+      <c r="D48">
+        <v>0.03196410673059783</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01187373303630159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01553338514194138</v>
+      </c>
+      <c r="C49">
+        <v>-0.1839352452827383</v>
+      </c>
+      <c r="D49">
+        <v>0.01292415908055614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001644277875683386</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003693641019304287</v>
+      </c>
+      <c r="C50">
+        <v>-0.04335346993076314</v>
+      </c>
+      <c r="D50">
+        <v>0.03593334341956354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0008952148516523323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004468119106390863</v>
+      </c>
+      <c r="C51">
+        <v>-0.02597189164865374</v>
+      </c>
+      <c r="D51">
+        <v>0.0199481538945874</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0007287483524104951</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02116888598829256</v>
+      </c>
+      <c r="C53">
+        <v>-0.1696901285324977</v>
+      </c>
+      <c r="D53">
+        <v>0.02673205194277773</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001114864621971276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008829285028240548</v>
+      </c>
+      <c r="C54">
+        <v>-0.05427103710003785</v>
+      </c>
+      <c r="D54">
+        <v>0.04442453434894275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003840783390549345</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009673197134615312</v>
+      </c>
+      <c r="C55">
+        <v>-0.108283086471762</v>
+      </c>
+      <c r="D55">
+        <v>0.03955388446219939</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002699386647769053</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02032311205985005</v>
+      </c>
+      <c r="C56">
+        <v>-0.1739267478518446</v>
+      </c>
+      <c r="D56">
+        <v>0.0264132664545721</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007052290443099311</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01988689976644281</v>
+      </c>
+      <c r="C58">
+        <v>-0.1124981911240276</v>
+      </c>
+      <c r="D58">
+        <v>0.04833187789390508</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006673835385796204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.01001201419439699</v>
+      </c>
+      <c r="C59">
+        <v>-0.1650034292220117</v>
+      </c>
+      <c r="D59">
+        <v>-0.3210021421682374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003891411958650423</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02432001149946538</v>
+      </c>
+      <c r="C60">
+        <v>-0.2218848927758179</v>
+      </c>
+      <c r="D60">
+        <v>0.03600671786674142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01372199670296436</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001590994714319258</v>
+      </c>
+      <c r="C61">
+        <v>-0.0952766806678622</v>
+      </c>
+      <c r="D61">
+        <v>0.0561878757096742</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1635839622409976</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.145018679589919</v>
+      </c>
+      <c r="C62">
+        <v>-0.09200520863054738</v>
+      </c>
+      <c r="D62">
+        <v>0.04432491478177419</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0007911481252980685</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006367289758037213</v>
+      </c>
+      <c r="C63">
+        <v>-0.05471433280641349</v>
+      </c>
+      <c r="D63">
+        <v>0.02719686741188987</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0006446262911512365</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0154637949680841</v>
+      </c>
+      <c r="C64">
+        <v>-0.1049374010294375</v>
+      </c>
+      <c r="D64">
+        <v>0.06028740317893148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.003010308235024279</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01818582296485907</v>
+      </c>
+      <c r="C65">
+        <v>-0.123928512411409</v>
+      </c>
+      <c r="D65">
+        <v>0.01892625191651148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007661755537870251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01330349889599382</v>
+      </c>
+      <c r="C66">
+        <v>-0.1599062560477577</v>
+      </c>
+      <c r="D66">
+        <v>0.1129849264854497</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.00357225196095476</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01575314117946735</v>
+      </c>
+      <c r="C67">
+        <v>-0.06593742630934134</v>
+      </c>
+      <c r="D67">
+        <v>0.02737401256619436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006143534205204279</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0007702182618727011</v>
+      </c>
+      <c r="C68">
+        <v>-0.08751860175635562</v>
+      </c>
+      <c r="D68">
+        <v>-0.2587244771715699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002265393999685641</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006257802248205247</v>
+      </c>
+      <c r="C69">
+        <v>-0.05011580431328347</v>
+      </c>
+      <c r="D69">
+        <v>0.03954302223721982</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004392448070159018</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001847357908156861</v>
+      </c>
+      <c r="C70">
+        <v>-0.002564336478384336</v>
+      </c>
+      <c r="D70">
+        <v>0.002683590588432651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-2.024444512917464e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00596096081214454</v>
+      </c>
+      <c r="C71">
+        <v>-0.09640594849950224</v>
+      </c>
+      <c r="D71">
+        <v>-0.306506453665874</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004010256850918406</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.016328363408936</v>
+      </c>
+      <c r="C72">
+        <v>-0.1527688048715175</v>
+      </c>
+      <c r="D72">
+        <v>0.02132563048151489</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0120135187098141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03120470168488787</v>
+      </c>
+      <c r="C73">
+        <v>-0.2800611164403267</v>
+      </c>
+      <c r="D73">
+        <v>0.05519718333371193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004588125500192629</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002148829932844363</v>
+      </c>
+      <c r="C74">
+        <v>-0.1049718329412462</v>
+      </c>
+      <c r="D74">
+        <v>0.03605716807062794</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002334768706432456</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01113993323607765</v>
+      </c>
+      <c r="C75">
+        <v>-0.1247212122427041</v>
+      </c>
+      <c r="D75">
+        <v>0.02352446982111383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008872699040462955</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.0220489225609572</v>
+      </c>
+      <c r="C76">
+        <v>-0.1492067186755485</v>
+      </c>
+      <c r="D76">
+        <v>0.06001165407761837</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001529588700032226</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02363131152143945</v>
+      </c>
+      <c r="C77">
+        <v>-0.1224414204818346</v>
+      </c>
+      <c r="D77">
+        <v>0.08670311654233678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003167673979593924</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.0148887134518079</v>
+      </c>
+      <c r="C78">
+        <v>-0.0959122872885879</v>
+      </c>
+      <c r="D78">
+        <v>0.07135059534669498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02305669343464601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03793801817071692</v>
+      </c>
+      <c r="C79">
+        <v>-0.156457576361091</v>
+      </c>
+      <c r="D79">
+        <v>0.03305690374937972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006664473389884053</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01045381015804276</v>
+      </c>
+      <c r="C80">
+        <v>-0.03992735088225558</v>
+      </c>
+      <c r="D80">
+        <v>0.02859729795634334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001123127464959651</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01548351092642138</v>
+      </c>
+      <c r="C81">
+        <v>-0.1268045623026031</v>
+      </c>
+      <c r="D81">
+        <v>0.03866046882131088</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005927577486282001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02002945936311579</v>
+      </c>
+      <c r="C82">
+        <v>-0.1412150284195049</v>
+      </c>
+      <c r="D82">
+        <v>0.0383143038355419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008703605573593112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01008204298756213</v>
+      </c>
+      <c r="C83">
+        <v>-0.05598970423823386</v>
+      </c>
+      <c r="D83">
+        <v>0.05519044099906664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0130754875289491</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01168979409403158</v>
+      </c>
+      <c r="C84">
+        <v>-0.03704728512655089</v>
+      </c>
+      <c r="D84">
+        <v>-0.008151629675161743</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01392094337874021</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02839970823773336</v>
+      </c>
+      <c r="C85">
+        <v>-0.1236606912778349</v>
+      </c>
+      <c r="D85">
+        <v>0.04476609540329746</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.001650003968164234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.006001491709088333</v>
+      </c>
+      <c r="C86">
+        <v>-0.05022961523398194</v>
+      </c>
+      <c r="D86">
+        <v>0.02722953323731927</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.004575779557856829</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01031686952250828</v>
+      </c>
+      <c r="C87">
+        <v>-0.1292358794779051</v>
+      </c>
+      <c r="D87">
+        <v>0.07435304372909721</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01171250987567288</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002836886794022936</v>
+      </c>
+      <c r="C88">
+        <v>-0.06523805615515074</v>
+      </c>
+      <c r="D88">
+        <v>0.01783292161348434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01371331425861581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001087208011885222</v>
+      </c>
+      <c r="C89">
+        <v>-0.1484542458858073</v>
+      </c>
+      <c r="D89">
+        <v>-0.3396591435745051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0009571689924659975</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007241543347979731</v>
+      </c>
+      <c r="C90">
+        <v>-0.1226190852504709</v>
+      </c>
+      <c r="D90">
+        <v>-0.3192524245345179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006221866844374773</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01056155911035903</v>
+      </c>
+      <c r="C91">
+        <v>-0.1007478632692093</v>
+      </c>
+      <c r="D91">
+        <v>0.02103281607467565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007624797261533401</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.00111442255062238</v>
+      </c>
+      <c r="C92">
+        <v>-0.1353308636347268</v>
+      </c>
+      <c r="D92">
+        <v>-0.3263666546953737</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>9.779716938387125e-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005089071678498321</v>
+      </c>
+      <c r="C93">
+        <v>-0.1057598844379123</v>
+      </c>
+      <c r="D93">
+        <v>-0.3005499735921567</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003216298471959076</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02269984637710251</v>
+      </c>
+      <c r="C94">
+        <v>-0.1463886018304819</v>
+      </c>
+      <c r="D94">
+        <v>0.05355968341225645</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.00465509948448045</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01664777837935104</v>
+      </c>
+      <c r="C95">
+        <v>-0.1260658053280111</v>
+      </c>
+      <c r="D95">
+        <v>0.05651865548692837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0003736744594857132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03647455047061333</v>
+      </c>
+      <c r="C97">
+        <v>-0.2121228034590726</v>
+      </c>
+      <c r="D97">
+        <v>-0.007398355956160996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003071960265080757</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03681689537774813</v>
+      </c>
+      <c r="C98">
+        <v>-0.2470879191842378</v>
+      </c>
+      <c r="D98">
+        <v>0.05190386215445318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9848047114290187</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9820172859040432</v>
+      </c>
+      <c r="C99">
+        <v>0.1177654255969754</v>
+      </c>
+      <c r="D99">
+        <v>-0.02736660035264021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001065076815308105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003362843281837099</v>
+      </c>
+      <c r="C101">
+        <v>-0.05020172055284219</v>
+      </c>
+      <c r="D101">
+        <v>0.00633360039850524</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
